--- a/Phase 3 Documentation/Phase Three Time Log.xlsx
+++ b/Phase 3 Documentation/Phase Three Time Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakeman/Documents/Planr/Phase 3 Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakeman/Documents/macos/Planr/Phase 3 Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF936C6E-F3DA-9649-962C-E84988E67697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61212ECE-DDF4-1D46-BB14-93BD1E9203A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{52085EF4-1DF1-914B-8651-54C060764F1A}"/>
+    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{52085EF4-1DF1-914B-8651-54C060764F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,63 @@
   </si>
   <si>
     <t>Setting up SwiftUI Views.</t>
+  </si>
+  <si>
+    <t>Creating the New Project view and adding to Constants</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Researching Realm database and MVVM for SwiftUI</t>
+  </si>
+  <si>
+    <t>Created reusable buttons.</t>
+  </si>
+  <si>
+    <t>Researching how view navigation and object lifecycles work in SwiftUI</t>
+  </si>
+  <si>
+    <t>Implementing NavigationStack and worked on navigating between RootView and NewProject view.</t>
+  </si>
+  <si>
+    <t>Still working on application state and view navigation.</t>
+  </si>
+  <si>
+    <t>Spent too much time trying to refactor data models to conform to Realm protocols only to figure out that I don't need them all to be stored in realm while mutating them live.</t>
+  </si>
+  <si>
+    <t>Setting up the PlannedSprintView with its respective shared views to be part of the Roadmap view.</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Working on Phase 3 Presentation</t>
+  </si>
+  <si>
+    <t>Moved Settings into reusable view. Worked on enforcing validation when text is being input.</t>
+  </si>
+  <si>
+    <t>Spent a bunch of time refactoring the Realm work I implemented because it was all wrong and wasn't able to get enums to properly get stored in a Realm db.</t>
+  </si>
+  <si>
+    <t>Creating the project setup views and implementing the multi-date picker view</t>
+  </si>
+  <si>
+    <t>Simplifying data models and trying to hook up to Realm for db storage.</t>
+  </si>
+  <si>
+    <t>Final presentation prep</t>
+  </si>
+  <si>
+    <t>Hooking everything up and ensuring data validation is in place as well as proper navigation.</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Testing the application and resolving bugs found</t>
   </si>
 </sst>
 </file>
@@ -105,13 +162,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,22 +489,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5A7878-C821-8C47-B0EE-4E8CD483D98D}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="103.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="103.1640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,157 +520,404 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44504</v>
       </c>
       <c r="B2" s="3">
         <v>0.56944444444444442</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2-B2</f>
+        <v>5.555555555555558E-2</v>
+      </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D20" si="0">C3-B3</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44506</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.96875</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19930555555555551</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.95347222222222217</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.10972222222222217</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44509</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>7.5694444444444398E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.1381944444444444</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C18" s="3">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>23.041666666666668</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8194444444444448E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Phase 3 Documentation/Phase Three Time Log.xlsx
+++ b/Phase 3 Documentation/Phase Three Time Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blakeman/Documents/macos/Planr/Phase 3 Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61212ECE-DDF4-1D46-BB14-93BD1E9203A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B868C15-D21D-0646-A1AA-2499075B481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{52085EF4-1DF1-914B-8651-54C060764F1A}"/>
+    <workbookView xWindow="-28940" yWindow="1220" windowWidth="26600" windowHeight="17940" xr2:uid="{52085EF4-1DF1-914B-8651-54C060764F1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -115,15 +115,34 @@
   </si>
   <si>
     <t>Testing the application and resolving bugs found</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Adding new test cases now that UI is more finalized.</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Documenting the new architecture changes.</t>
+  </si>
+  <si>
+    <t>Finalizing work on the presentation.</t>
+  </si>
+  <si>
+    <t>Code clean up and documentation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="169" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -162,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -175,6 +194,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,14 +513,14 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="103.1640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
@@ -554,7 +575,7 @@
         <v>0.9375</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D20" si="0">C3-B3</f>
+        <f t="shared" ref="D3:D22" si="0">C3-B3</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="E3" t="s">
@@ -848,11 +869,11 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C18" s="3">
-        <v>24</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>23.041666666666668</v>
+        <v>4.0972222222222188E-2</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -901,22 +922,90 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>4.7916666666666718E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D34" s="5"/>
     </row>
   </sheetData>
